--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -19,22 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
-  <si>
-    <t>CustomerID</t>
-  </si>
-  <si>
-    <t>InvoiceNumber</t>
-  </si>
-  <si>
-    <t>Message</t>
-  </si>
-  <si>
-    <t>CustomerSelectValue</t>
-  </si>
-  <si>
-    <t>Successful Order place Message</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>UserName</t>
   </si>
@@ -42,12 +27,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Search Items Value</t>
-  </si>
-  <si>
-    <t>Restricted Order place Message</t>
-  </si>
-  <si>
     <t>reshma+mspuat@simplifyvms.com</t>
   </si>
   <si>
@@ -61,6 +40,12 @@
   </si>
   <si>
     <t>Demo@1234</t>
+  </si>
+  <si>
+    <t>WIDGET LABEL</t>
+  </si>
+  <si>
+    <t>QA Job</t>
   </si>
 </sst>
 </file>
@@ -82,11 +67,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +110,12 @@
       <sz val="9.8000000000000007"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF6C757D"/>
+      <name val="Inter"/>
     </font>
   </fonts>
   <fills count="3">
@@ -185,39 +171,39 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -502,7 +488,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -518,115 +504,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9">
       <c r="C8" s="1"/>

--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>UserName</t>
   </si>
@@ -46,13 +46,40 @@
   </si>
   <si>
     <t>QA Job</t>
+  </si>
+  <si>
+    <r>
+      <t>Software engineering is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>the systematic application of engineering approaches to the development of software</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. A software engineer is a person who applies the principles of software engineering to design, develop, maintain, test, and evaluate computer software</t>
+    </r>
+  </si>
+  <si>
+    <t>JOB DESCRIPTION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,12 +103,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF202124"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF313131"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -116,6 +137,19 @@
       <sz val="9"/>
       <color rgb="FF6C757D"/>
       <name val="Inter"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -171,39 +205,47 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -488,7 +530,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -496,7 +538,7 @@
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
     <col min="3" max="3" width="38.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="60" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="38.28515625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -504,105 +546,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="13"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="14" t="s">
+      <c r="D1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" ht="90.75" customHeight="1">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="7"/>
+      <c r="D2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="7"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9">
       <c r="C8" s="1"/>

--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>UserName</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>JOB DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Job Profile</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
   </si>
 </sst>
 </file>
@@ -207,7 +213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -245,6 +251,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -530,7 +539,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -558,7 +567,9 @@
       <c r="D1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
       <c r="H1" s="10"/>
@@ -577,7 +588,9 @@
       <c r="D2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="20" t="s">
+        <v>12</v>
+      </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="13"/>

--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="SimplifyVMS" sheetId="1" r:id="rId1"/>
+    <sheet name="SimplifyVMS" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>UserName</t>
   </si>
@@ -48,30 +48,6 @@
     <t>QA Job</t>
   </si>
   <si>
-    <r>
-      <t>Software engineering is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF202124"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>the systematic application of engineering approaches to the development of software</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF202124"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>. A software engineer is a person who applies the principles of software engineering to design, develop, maintain, test, and evaluate computer software</t>
-    </r>
-  </si>
-  <si>
     <t>JOB DESCRIPTION</t>
   </si>
   <si>
@@ -79,13 +55,29 @@
   </si>
   <si>
     <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>Project ID</t>
+  </si>
+  <si>
+    <t>Vendors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAM - UNFI-JB-182 </t>
+  </si>
+  <si>
+    <t>Aerotek Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAM - UNFI-JB-183 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+  <numFmts count="0"/>
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,11 +107,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9.8000000000000007"/>
-      <name val="JetBrains Mono"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -134,17 +121,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.8000000000000007"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF6C757D"/>
-      <name val="Inter"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF202124"/>
       <name val="Arial"/>
@@ -152,10 +128,12 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF202124"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <name val="Inter"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <name val="JetBrains Mono"/>
     </font>
   </fonts>
   <fills count="3">
@@ -210,58 +188,53 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="22">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="8" numFmtId="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -278,10 +251,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -316,7 +289,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -351,7 +324,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -445,21 +418,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -476,7 +449,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -528,154 +501,268 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="60" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="38.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="60.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row customFormat="1" ht="15.75" r="2" s="19" spans="1:9">
+      <c r="A2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="1:9" ht="90.75" customHeight="1">
-      <c r="A2" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="F2" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="21"/>
+      <c r="I2" s="18"/>
+    </row>
+    <row customHeight="1" ht="19.5" r="3" spans="1:9">
+      <c r="A3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="C8" s="1"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="mailto:reshma+mspuat@simplifyvms.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="mailto:reshma+testvendoruat@simplifyvms.com"/>
-    <hyperlink ref="A4" r:id="rId3" display="mailto:reshma+hm@simplifyvms.com"/>
-    <hyperlink ref="A5" r:id="rId4" display="mailto:reshma+sup@simplifyvms.com"/>
-    <hyperlink ref="B2" r:id="rId5" location="NOP" tooltip="mailto:demo@1234" display="https://webmail.automatrix-innovation.com/cpsess3304754576/3rdparty/roundcube/?_task=mail&amp;_caps=pdf%3D1%2Cflash%3D0%2Ctiff%3D0%2Cwebp%3D1&amp;_uid=3&amp;_mbox=INBOX&amp;_framed=1&amp;_action=preview - NOP"/>
-    <hyperlink ref="B3:B5" r:id="rId6" location="NOP" tooltip="mailto:demo@1234" display="https://webmail.automatrix-innovation.com/cpsess3304754576/3rdparty/roundcube/?_task=mail&amp;_caps=pdf%3D1%2Cflash%3D0%2Ctiff%3D0%2Cwebp%3D1&amp;_uid=3&amp;_mbox=INBOX&amp;_framed=1&amp;_action=preview - NOP"/>
+    <hyperlink display="mailto:reshma+mspuat@simplifyvms.com" r:id="rId1" ref="A2"/>
+    <hyperlink display="mailto:reshma+testvendoruat@simplifyvms.com" r:id="rId2" ref="A3"/>
+    <hyperlink display="mailto:reshma+hm@simplifyvms.com" r:id="rId3" ref="A4"/>
+    <hyperlink display="mailto:reshma+sup@simplifyvms.com" r:id="rId4" ref="A5"/>
+    <hyperlink display="https://webmail.automatrix-innovation.com/cpsess3304754576/3rdparty/roundcube/?_task=mail&amp;_caps=pdf%3D1%2Cflash%3D0%2Ctiff%3D0%2Cwebp%3D1&amp;_uid=3&amp;_mbox=INBOX&amp;_framed=1&amp;_action=preview - NOP" location="NOP" r:id="rId5" ref="B2" tooltip="mailto:demo@1234"/>
+    <hyperlink display="https://webmail.automatrix-innovation.com/cpsess3304754576/3rdparty/roundcube/?_task=mail&amp;_caps=pdf%3D1%2Cflash%3D0%2Ctiff%3D0%2Cwebp%3D1&amp;_uid=3&amp;_mbox=INBOX&amp;_framed=1&amp;_action=preview - NOP" location="NOP" r:id="rId6" ref="B3:B5" tooltip="mailto:demo@1234"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="SimplifyVMS" r:id="rId1" sheetId="1"/>
+    <sheet name="SimplifyVMS" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>UserName</t>
   </si>
@@ -63,20 +63,16 @@
     <t>Vendors</t>
   </si>
   <si>
-    <t xml:space="preserve">PROGRAM - UNFI-JB-182 </t>
-  </si>
-  <si>
     <t>Aerotek Inc.</t>
   </si>
   <si>
-    <t xml:space="preserve">PROGRAM - UNFI-JB-183 </t>
+    <t xml:space="preserve">PROGRAM - UNFI-JB-190 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -188,53 +184,53 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="8" numFmtId="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -251,10 +247,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -289,7 +285,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -324,7 +320,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -418,21 +414,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -449,7 +445,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -501,31 +497,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="38.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="60.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="38.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="60" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="38.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="30" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -553,7 +549,7 @@
       <c r="H1" s="8"/>
       <c r="I1" s="9"/>
     </row>
-    <row customFormat="1" ht="15.75" r="2" s="19" spans="1:9">
+    <row r="2" spans="1:9" s="19" customFormat="1" ht="15.75">
       <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
@@ -568,15 +564,15 @@
         <v>11</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" s="21"/>
       <c r="I2" s="18"/>
     </row>
-    <row customHeight="1" ht="19.5" r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="19.5" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
@@ -755,14 +751,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="mailto:reshma+mspuat@simplifyvms.com" r:id="rId1" ref="A2"/>
-    <hyperlink display="mailto:reshma+testvendoruat@simplifyvms.com" r:id="rId2" ref="A3"/>
-    <hyperlink display="mailto:reshma+hm@simplifyvms.com" r:id="rId3" ref="A4"/>
-    <hyperlink display="mailto:reshma+sup@simplifyvms.com" r:id="rId4" ref="A5"/>
-    <hyperlink display="https://webmail.automatrix-innovation.com/cpsess3304754576/3rdparty/roundcube/?_task=mail&amp;_caps=pdf%3D1%2Cflash%3D0%2Ctiff%3D0%2Cwebp%3D1&amp;_uid=3&amp;_mbox=INBOX&amp;_framed=1&amp;_action=preview - NOP" location="NOP" r:id="rId5" ref="B2" tooltip="mailto:demo@1234"/>
-    <hyperlink display="https://webmail.automatrix-innovation.com/cpsess3304754576/3rdparty/roundcube/?_task=mail&amp;_caps=pdf%3D1%2Cflash%3D0%2Ctiff%3D0%2Cwebp%3D1&amp;_uid=3&amp;_mbox=INBOX&amp;_framed=1&amp;_action=preview - NOP" location="NOP" r:id="rId6" ref="B3:B5" tooltip="mailto:demo@1234"/>
+    <hyperlink ref="A2" r:id="rId1" display="mailto:reshma+mspuat@simplifyvms.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="mailto:reshma+testvendoruat@simplifyvms.com"/>
+    <hyperlink ref="A4" r:id="rId3" display="mailto:reshma+hm@simplifyvms.com"/>
+    <hyperlink ref="A5" r:id="rId4" display="mailto:reshma+sup@simplifyvms.com"/>
+    <hyperlink ref="B2" r:id="rId5" location="NOP" tooltip="mailto:demo@1234" display="https://webmail.automatrix-innovation.com/cpsess3304754576/3rdparty/roundcube/?_task=mail&amp;_caps=pdf%3D1%2Cflash%3D0%2Ctiff%3D0%2Cwebp%3D1&amp;_uid=3&amp;_mbox=INBOX&amp;_framed=1&amp;_action=preview - NOP"/>
+    <hyperlink ref="B3:B5" r:id="rId6" location="NOP" tooltip="mailto:demo@1234" display="https://webmail.automatrix-innovation.com/cpsess3304754576/3rdparty/roundcube/?_task=mail&amp;_caps=pdf%3D1%2Cflash%3D0%2Ctiff%3D0%2Cwebp%3D1&amp;_uid=3&amp;_mbox=INBOX&amp;_framed=1&amp;_action=preview - NOP"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="SimplifyVMS" sheetId="1" r:id="rId1"/>
+    <sheet name="SimplifyVMS" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>UserName</t>
   </si>
@@ -66,13 +66,14 @@
     <t>Aerotek Inc.</t>
   </si>
   <si>
-    <t xml:space="preserve">PROGRAM - UNFI-JB-190 </t>
+    <t xml:space="preserve">PROGRAM - UNFI-JB-195 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -184,53 +185,53 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="8" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -247,10 +248,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -285,7 +286,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -320,7 +321,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -414,21 +415,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -445,7 +446,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -497,31 +498,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="60" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="38.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="60.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -549,7 +550,7 @@
       <c r="H1" s="8"/>
       <c r="I1" s="9"/>
     </row>
-    <row r="2" spans="1:9" s="19" customFormat="1" ht="15.75">
+    <row customFormat="1" ht="15.75" r="2" s="19" spans="1:9">
       <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
@@ -572,7 +573,7 @@
       <c r="H2" s="21"/>
       <c r="I2" s="18"/>
     </row>
-    <row r="3" spans="1:9" ht="19.5" customHeight="1">
+    <row customHeight="1" ht="19.5" r="3" spans="1:9">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
@@ -751,14 +752,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="mailto:reshma+mspuat@simplifyvms.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="mailto:reshma+testvendoruat@simplifyvms.com"/>
-    <hyperlink ref="A4" r:id="rId3" display="mailto:reshma+hm@simplifyvms.com"/>
-    <hyperlink ref="A5" r:id="rId4" display="mailto:reshma+sup@simplifyvms.com"/>
-    <hyperlink ref="B2" r:id="rId5" location="NOP" tooltip="mailto:demo@1234" display="https://webmail.automatrix-innovation.com/cpsess3304754576/3rdparty/roundcube/?_task=mail&amp;_caps=pdf%3D1%2Cflash%3D0%2Ctiff%3D0%2Cwebp%3D1&amp;_uid=3&amp;_mbox=INBOX&amp;_framed=1&amp;_action=preview - NOP"/>
-    <hyperlink ref="B3:B5" r:id="rId6" location="NOP" tooltip="mailto:demo@1234" display="https://webmail.automatrix-innovation.com/cpsess3304754576/3rdparty/roundcube/?_task=mail&amp;_caps=pdf%3D1%2Cflash%3D0%2Ctiff%3D0%2Cwebp%3D1&amp;_uid=3&amp;_mbox=INBOX&amp;_framed=1&amp;_action=preview - NOP"/>
+    <hyperlink display="mailto:reshma+mspuat@simplifyvms.com" r:id="rId1" ref="A2"/>
+    <hyperlink display="mailto:reshma+testvendoruat@simplifyvms.com" r:id="rId2" ref="A3"/>
+    <hyperlink display="mailto:reshma+hm@simplifyvms.com" r:id="rId3" ref="A4"/>
+    <hyperlink display="mailto:reshma+sup@simplifyvms.com" r:id="rId4" ref="A5"/>
+    <hyperlink display="https://webmail.automatrix-innovation.com/cpsess3304754576/3rdparty/roundcube/?_task=mail&amp;_caps=pdf%3D1%2Cflash%3D0%2Ctiff%3D0%2Cwebp%3D1&amp;_uid=3&amp;_mbox=INBOX&amp;_framed=1&amp;_action=preview - NOP" location="NOP" r:id="rId5" ref="B2" tooltip="mailto:demo@1234"/>
+    <hyperlink display="https://webmail.automatrix-innovation.com/cpsess3304754576/3rdparty/roundcube/?_task=mail&amp;_caps=pdf%3D1%2Cflash%3D0%2Ctiff%3D0%2Cwebp%3D1&amp;_uid=3&amp;_mbox=INBOX&amp;_framed=1&amp;_action=preview - NOP" location="NOP" r:id="rId6" ref="B3:B5" tooltip="mailto:demo@1234"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>UserName</t>
   </si>
@@ -66,7 +66,31 @@
     <t>Aerotek Inc.</t>
   </si>
   <si>
-    <t xml:space="preserve">PROGRAM - UNFI-JB-195 </t>
+    <t xml:space="preserve">PROGRAM - UNFI-JB-202 </t>
+  </si>
+  <si>
+    <t>State-ID</t>
+  </si>
+  <si>
+    <t>Add Candidate Mail ID</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>Add Candidate Pay Rate</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>UniqueID</t>
+  </si>
+  <si>
+    <t>125</t>
   </si>
 </sst>
 </file>
@@ -74,7 +98,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,10 +151,6 @@
       <b/>
       <sz val="9"/>
       <name val="Inter"/>
-    </font>
-    <font>
-      <sz val="9.8000000000000007"/>
-      <name val="JetBrains Mono"/>
     </font>
   </fonts>
   <fills count="3">
@@ -188,7 +208,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
@@ -203,9 +223,6 @@
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
-      <alignment wrapText="1"/>
     </xf>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="1"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
@@ -222,9 +239,11 @@
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="8" numFmtId="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -506,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -523,19 +542,21 @@
     <col min="7" max="7" bestFit="true" customWidth="true" width="38.28515625" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="15.5703125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="9.65234375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -547,37 +568,57 @@
       <c r="G1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="9"/>
-    </row>
-    <row customFormat="1" ht="15.75" r="2" s="19" spans="1:9">
-      <c r="A2" s="15" t="s">
+      <c r="H1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="15.75" r="2" s="18" spans="1:11">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="18"/>
-    </row>
-    <row customHeight="1" ht="19.5" r="3" spans="1:9">
-      <c r="A3" s="10" t="s">
+      <c r="H2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="19.5" r="3" spans="1:11">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1"/>
@@ -585,14 +626,16 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="11"/>
+      <c r="H3" s="10"/>
       <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="10" t="s">
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1"/>
@@ -602,12 +645,14 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="10" t="s">
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1"/>
@@ -617,8 +662,10 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="1"/>
@@ -628,21 +675,23 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="14"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -650,8 +699,10 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -661,8 +712,10 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -672,8 +725,10 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -683,10 +738,10 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -694,10 +749,10 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -705,8 +760,10 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -716,8 +773,10 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -727,8 +786,10 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -738,17 +799,8 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -758,8 +810,9 @@
     <hyperlink display="mailto:reshma+sup@simplifyvms.com" r:id="rId4" ref="A5"/>
     <hyperlink display="https://webmail.automatrix-innovation.com/cpsess3304754576/3rdparty/roundcube/?_task=mail&amp;_caps=pdf%3D1%2Cflash%3D0%2Ctiff%3D0%2Cwebp%3D1&amp;_uid=3&amp;_mbox=INBOX&amp;_framed=1&amp;_action=preview - NOP" location="NOP" r:id="rId5" ref="B2" tooltip="mailto:demo@1234"/>
     <hyperlink display="https://webmail.automatrix-innovation.com/cpsess3304754576/3rdparty/roundcube/?_task=mail&amp;_caps=pdf%3D1%2Cflash%3D0%2Ctiff%3D0%2Cwebp%3D1&amp;_uid=3&amp;_mbox=INBOX&amp;_framed=1&amp;_action=preview - NOP" location="NOP" r:id="rId6" ref="B3:B5" tooltip="mailto:demo@1234"/>
+    <hyperlink r:id="rId7" ref="I2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>UserName</t>
   </si>

--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62F2420-4DAF-46B9-A43E-D03B0A2B1F9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SimplifyVMS" r:id="rId1" sheetId="1"/>
+    <sheet name="SimplifyVMS" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>UserName</t>
   </si>
@@ -84,21 +85,23 @@
     <t>Add Candidate Pay Rate</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>UniqueID</t>
   </si>
   <si>
     <t>125</t>
+  </si>
+  <si>
+    <t>Available Candidate ID</t>
+  </si>
+  <si>
+    <t>CH0811263</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +154,12 @@
       <b/>
       <sz val="9"/>
       <name val="Inter"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -205,52 +214,56 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
+  <cellXfs count="25">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -267,10 +280,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -305,7 +318,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -340,7 +353,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -434,21 +447,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -465,7 +478,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -517,36 +530,37 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="38.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="60.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="38.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="9.65234375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="1" max="1" width="15.26953125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.54296875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="38.7265625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="60" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.26953125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="38.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.54296875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.453125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="23" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -575,13 +589,16 @@
         <v>17</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row customFormat="1" ht="15.75" r="2" s="18" spans="1:11">
+      <c r="L1" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="18" customFormat="1" ht="15.5">
       <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
@@ -608,13 +625,14 @@
         <v>19</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="19.5" r="3" spans="1:11">
+        <v>22</v>
+      </c>
+      <c r="L2" s="24"/>
+    </row>
+    <row r="3" spans="1:12" ht="19.5" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
@@ -631,7 +649,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -648,7 +666,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
@@ -665,7 +683,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="1"/>
@@ -678,7 +696,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="13"/>
@@ -691,7 +709,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -702,7 +720,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -715,7 +733,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -728,7 +746,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -741,7 +759,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -752,7 +770,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -763,7 +781,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -776,7 +794,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -789,7 +807,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -804,15 +822,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="mailto:reshma+mspuat@simplifyvms.com" r:id="rId1" ref="A2"/>
-    <hyperlink display="mailto:reshma+testvendoruat@simplifyvms.com" r:id="rId2" ref="A3"/>
-    <hyperlink display="mailto:reshma+hm@simplifyvms.com" r:id="rId3" ref="A4"/>
-    <hyperlink display="mailto:reshma+sup@simplifyvms.com" r:id="rId4" ref="A5"/>
-    <hyperlink display="https://webmail.automatrix-innovation.com/cpsess3304754576/3rdparty/roundcube/?_task=mail&amp;_caps=pdf%3D1%2Cflash%3D0%2Ctiff%3D0%2Cwebp%3D1&amp;_uid=3&amp;_mbox=INBOX&amp;_framed=1&amp;_action=preview - NOP" location="NOP" r:id="rId5" ref="B2" tooltip="mailto:demo@1234"/>
-    <hyperlink display="https://webmail.automatrix-innovation.com/cpsess3304754576/3rdparty/roundcube/?_task=mail&amp;_caps=pdf%3D1%2Cflash%3D0%2Ctiff%3D0%2Cwebp%3D1&amp;_uid=3&amp;_mbox=INBOX&amp;_framed=1&amp;_action=preview - NOP" location="NOP" r:id="rId6" ref="B3:B5" tooltip="mailto:demo@1234"/>
-    <hyperlink r:id="rId7" ref="I2"/>
+    <hyperlink ref="A2" r:id="rId1" display="mailto:reshma+mspuat@simplifyvms.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" display="mailto:reshma+hm@simplifyvms.com" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" display="mailto:reshma+sup@simplifyvms.com" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B2" r:id="rId5" location="NOP" tooltip="mailto:demo@1234" display="https://webmail.automatrix-innovation.com/cpsess3304754576/3rdparty/roundcube/?_task=mail&amp;_caps=pdf%3D1%2Cflash%3D0%2Ctiff%3D0%2Cwebp%3D1&amp;_uid=3&amp;_mbox=INBOX&amp;_framed=1&amp;_action=preview - NOP" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B3:B5" r:id="rId6" location="NOP" tooltip="mailto:demo@1234" display="https://webmail.automatrix-innovation.com/cpsess3304754576/3rdparty/roundcube/?_task=mail&amp;_caps=pdf%3D1%2Cflash%3D0%2Ctiff%3D0%2Cwebp%3D1&amp;_uid=3&amp;_mbox=INBOX&amp;_framed=1&amp;_action=preview - NOP" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I2" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62F2420-4DAF-46B9-A43E-D03B0A2B1F9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{A62F2420-4DAF-46B9-A43E-D03B0A2B1F9B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
   </bookViews>
   <sheets>
-    <sheet name="SimplifyVMS" sheetId="1" r:id="rId1"/>
+    <sheet name="SimplifyVMS" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>UserName</t>
   </si>
@@ -95,12 +95,19 @@
   </si>
   <si>
     <t>CH0811263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAM - UNFI-JB-213 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAM - UNFI-JB-215 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -214,56 +221,56 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -280,10 +287,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -318,7 +325,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -353,7 +360,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -447,21 +454,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -478,7 +485,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -530,15 +537,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -546,18 +553,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.54296875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="38.7265625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="60" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.26953125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="38.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.54296875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.453125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.26953125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.54296875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="38.7265625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="60.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.26953125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="38.26953125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.54296875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.36328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.453125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -598,7 +605,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="18" customFormat="1" ht="15.5">
+    <row customFormat="1" ht="15.5" r="2" s="18" spans="1:12">
       <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
@@ -613,7 +620,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>14</v>
@@ -632,7 +639,7 @@
       </c>
       <c r="L2" s="24"/>
     </row>
-    <row r="3" spans="1:12" ht="19.5" customHeight="1">
+    <row customHeight="1" ht="19.5" r="3" spans="1:12">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
@@ -822,15 +829,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="mailto:reshma+mspuat@simplifyvms.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A4" r:id="rId3" display="mailto:reshma+hm@simplifyvms.com" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A5" r:id="rId4" display="mailto:reshma+sup@simplifyvms.com" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B2" r:id="rId5" location="NOP" tooltip="mailto:demo@1234" display="https://webmail.automatrix-innovation.com/cpsess3304754576/3rdparty/roundcube/?_task=mail&amp;_caps=pdf%3D1%2Cflash%3D0%2Ctiff%3D0%2Cwebp%3D1&amp;_uid=3&amp;_mbox=INBOX&amp;_framed=1&amp;_action=preview - NOP" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B3:B5" r:id="rId6" location="NOP" tooltip="mailto:demo@1234" display="https://webmail.automatrix-innovation.com/cpsess3304754576/3rdparty/roundcube/?_task=mail&amp;_caps=pdf%3D1%2Cflash%3D0%2Ctiff%3D0%2Cwebp%3D1&amp;_uid=3&amp;_mbox=INBOX&amp;_framed=1&amp;_action=preview - NOP" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="I2" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink display="mailto:reshma+mspuat@simplifyvms.com" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink r:id="rId2" ref="A3" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink display="mailto:reshma+hm@simplifyvms.com" r:id="rId3" ref="A4" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink display="mailto:reshma+sup@simplifyvms.com" r:id="rId4" ref="A5" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink display="https://webmail.automatrix-innovation.com/cpsess3304754576/3rdparty/roundcube/?_task=mail&amp;_caps=pdf%3D1%2Cflash%3D0%2Ctiff%3D0%2Cwebp%3D1&amp;_uid=3&amp;_mbox=INBOX&amp;_framed=1&amp;_action=preview - NOP" location="NOP" r:id="rId5" ref="B2" tooltip="mailto:demo@1234" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink display="https://webmail.automatrix-innovation.com/cpsess3304754576/3rdparty/roundcube/?_task=mail&amp;_caps=pdf%3D1%2Cflash%3D0%2Ctiff%3D0%2Cwebp%3D1&amp;_uid=3&amp;_mbox=INBOX&amp;_framed=1&amp;_action=preview - NOP" location="NOP" r:id="rId6" ref="B3:B5" tooltip="mailto:demo@1234" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink r:id="rId7" ref="I2" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>UserName</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t xml:space="preserve">PROGRAM - UNFI-JB-215 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAM - UNFI-JB-221 </t>
   </si>
 </sst>
 </file>
@@ -562,7 +565,7 @@
     <col min="7" max="7" bestFit="true" customWidth="true" width="38.26953125" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="15.54296875" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.36328125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.3828125" collapsed="true"/>
     <col min="11" max="11" customWidth="true" width="21.453125" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
   </cols>
@@ -620,7 +623,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>14</v>

--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>UserName</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t xml:space="preserve">PROGRAM - UNFI-JB-221 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAM - UNFI-JB-223 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAM - UNFI-JB-226 </t>
   </si>
 </sst>
 </file>
@@ -623,7 +629,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>14</v>

--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>UserName</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t xml:space="preserve">PROGRAM - UNFI-JB-226 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAM - UNFI-JB-228 </t>
   </si>
 </sst>
 </file>
@@ -629,7 +632,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>14</v>

--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr documentId="13_ncr:1_{A62F2420-4DAF-46B9-A43E-D03B0A2B1F9B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
+    <workbookView windowHeight="10425" windowWidth="19425" xWindow="-105" yWindow="-105"/>
   </bookViews>
   <sheets>
     <sheet name="SimplifyVMS" r:id="rId1" sheetId="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>UserName</t>
   </si>
@@ -67,18 +66,12 @@
     <t>Aerotek Inc.</t>
   </si>
   <si>
-    <t xml:space="preserve">PROGRAM - UNFI-JB-202 </t>
-  </si>
-  <si>
     <t>State-ID</t>
   </si>
   <si>
     <t>Add Candidate Mail ID</t>
   </si>
   <si>
-    <t>263</t>
-  </si>
-  <si>
     <t>abc@gmail.com</t>
   </si>
   <si>
@@ -97,28 +90,28 @@
     <t>CH0811263</t>
   </si>
   <si>
-    <t xml:space="preserve">PROGRAM - UNFI-JB-213 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROGRAM - UNFI-JB-215 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROGRAM - UNFI-JB-221 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROGRAM - UNFI-JB-223 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROGRAM - UNFI-JB-226 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROGRAM - UNFI-JB-228 </t>
+    <t xml:space="preserve">PROGRAM - UNFI-JB-230 </t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAM - UNFI-JB-232 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAM - UNFI-JB-233 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAM - UNFI-JB-234 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAM - UNFI-JB-235 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
   <fonts count="9">
     <font>
@@ -556,26 +549,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.26953125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.54296875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="38.7265625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="38.7109375" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="60.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.26953125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.28515625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="38.26953125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="15.54296875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.5703125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.3828125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.453125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.42578125" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
   </cols>
   <sheetData>
@@ -602,22 +595,22 @@
         <v>13</v>
       </c>
       <c r="H1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="20" t="s">
-        <v>17</v>
-      </c>
       <c r="J1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="15.5" r="2" s="18" spans="1:12">
+    </row>
+    <row customFormat="1" ht="15.75" r="2" s="18" spans="1:12">
       <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
@@ -632,22 +625,22 @@
         <v>11</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L2" s="24"/>
     </row>
@@ -841,13 +834,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="mailto:reshma+mspuat@simplifyvms.com" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink r:id="rId2" ref="A3" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink display="mailto:reshma+hm@simplifyvms.com" r:id="rId3" ref="A4" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink display="mailto:reshma+sup@simplifyvms.com" r:id="rId4" ref="A5" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink display="https://webmail.automatrix-innovation.com/cpsess3304754576/3rdparty/roundcube/?_task=mail&amp;_caps=pdf%3D1%2Cflash%3D0%2Ctiff%3D0%2Cwebp%3D1&amp;_uid=3&amp;_mbox=INBOX&amp;_framed=1&amp;_action=preview - NOP" location="NOP" r:id="rId5" ref="B2" tooltip="mailto:demo@1234" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink display="https://webmail.automatrix-innovation.com/cpsess3304754576/3rdparty/roundcube/?_task=mail&amp;_caps=pdf%3D1%2Cflash%3D0%2Ctiff%3D0%2Cwebp%3D1&amp;_uid=3&amp;_mbox=INBOX&amp;_framed=1&amp;_action=preview - NOP" location="NOP" r:id="rId6" ref="B3:B5" tooltip="mailto:demo@1234" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink r:id="rId7" ref="I2" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink display="mailto:reshma+mspuat@simplifyvms.com" r:id="rId1" ref="A2"/>
+    <hyperlink r:id="rId2" ref="A3"/>
+    <hyperlink display="mailto:reshma+hm@simplifyvms.com" r:id="rId3" ref="A4"/>
+    <hyperlink display="mailto:reshma+sup@simplifyvms.com" r:id="rId4" ref="A5"/>
+    <hyperlink display="https://webmail.automatrix-innovation.com/cpsess3304754576/3rdparty/roundcube/?_task=mail&amp;_caps=pdf%3D1%2Cflash%3D0%2Ctiff%3D0%2Cwebp%3D1&amp;_uid=3&amp;_mbox=INBOX&amp;_framed=1&amp;_action=preview - NOP" location="NOP" r:id="rId5" ref="B2" tooltip="mailto:demo@1234"/>
+    <hyperlink display="https://webmail.automatrix-innovation.com/cpsess3304754576/3rdparty/roundcube/?_task=mail&amp;_caps=pdf%3D1%2Cflash%3D0%2Ctiff%3D0%2Cwebp%3D1&amp;_uid=3&amp;_mbox=INBOX&amp;_framed=1&amp;_action=preview - NOP" location="NOP" r:id="rId6" ref="B3:B5" tooltip="mailto:demo@1234"/>
+    <hyperlink r:id="rId7" ref="I2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId8"/>

--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>UserName</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t xml:space="preserve">PROGRAM - UNFI-JB-235 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAM - UNFI-JB-236 </t>
   </si>
 </sst>
 </file>
@@ -625,7 +628,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>14</v>

--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>UserName</t>
   </si>
@@ -84,31 +84,28 @@
     <t>125</t>
   </si>
   <si>
-    <t>Available Candidate ID</t>
-  </si>
-  <si>
-    <t>CH0811263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROGRAM - UNFI-JB-230 </t>
-  </si>
-  <si>
     <t>033</t>
   </si>
   <si>
-    <t xml:space="preserve">PROGRAM - UNFI-JB-232 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROGRAM - UNFI-JB-233 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROGRAM - UNFI-JB-234 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROGRAM - UNFI-JB-235 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROGRAM - UNFI-JB-236 </t>
+    <t xml:space="preserve">PROGRAM - UNFI-JB-239 </t>
+  </si>
+  <si>
+    <t>CH0811033</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>9898989898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAM - UNFI-JB-241 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAM - UNFI-JB-250 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAM - UNFI-JB-255 </t>
   </si>
 </sst>
 </file>
@@ -171,10 +168,9 @@
       <name val="Inter"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="9.8000000000000007"/>
+      <name val="JetBrains Mono"/>
     </font>
   </fonts>
   <fills count="3">
@@ -232,7 +228,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
@@ -267,11 +263,12 @@
     <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0">
+    <xf applyBorder="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="8" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -555,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -570,9 +567,9 @@
     <col min="7" max="7" bestFit="true" customWidth="true" width="38.28515625" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="15.5703125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.3828125" collapsed="true"/>
     <col min="11" max="11" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -609,8 +606,8 @@
       <c r="K1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="23" t="s">
-        <v>21</v>
+      <c r="L1" s="24" t="s">
+        <v>24</v>
       </c>
     </row>
     <row customFormat="1" ht="15.75" r="2" s="18" spans="1:12">
@@ -628,24 +625,26 @@
         <v>11</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="24"/>
+      <c r="L2" s="25" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row customHeight="1" ht="19.5" r="3" spans="1:12">
       <c r="A3" s="9" t="s">
@@ -662,7 +661,8 @@
       <c r="H3" s="10"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="9" t="s">
@@ -679,7 +679,8 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="9" t="s">
@@ -696,7 +697,8 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="4"/>
@@ -709,7 +711,8 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="4"/>
@@ -722,7 +725,8 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12">
       <c r="C8" s="4"/>
@@ -733,7 +737,8 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="4"/>
@@ -746,7 +751,8 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="4"/>
@@ -759,7 +765,8 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="4"/>
@@ -772,7 +779,8 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12">
       <c r="C12" s="4"/>
@@ -783,7 +791,8 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
       <c r="C13" s="4"/>
@@ -794,7 +803,8 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
@@ -807,7 +817,8 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
@@ -820,7 +831,8 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
@@ -833,7 +845,8 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>UserName</t>
   </si>
@@ -106,6 +106,21 @@
   </si>
   <si>
     <t xml:space="preserve">PROGRAM - UNFI-JB-255 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAM - UNFI-JB-324 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAM - UNFI-JB-325 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAM - UNFI-JB-326 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAM - UNFI-JB-327 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAM - UNFI-JB-328 </t>
   </si>
 </sst>
 </file>
@@ -550,7 +565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
@@ -563,11 +578,11 @@
     <col min="3" max="3" customWidth="true" width="38.7109375" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="60.0" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.71484375" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="38.28515625" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="15.5703125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.3828125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.38671875" collapsed="true"/>
     <col min="11" max="11" customWidth="true" width="21.42578125" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
@@ -625,7 +640,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>14</v>

--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>UserName</t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t xml:space="preserve">PROGRAM - UNFI-JB-328 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAM - UNFI-JB-329 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAM - UNFI-JB-330 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAM - UNFI-JB-331 </t>
   </si>
 </sst>
 </file>
@@ -640,7 +649,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>14</v>

--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>UserName</t>
   </si>
@@ -130,6 +130,15 @@
   </si>
   <si>
     <t xml:space="preserve">PROGRAM - UNFI-JB-331 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAM - UNFI-JB-332 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAM - UNFI-JB-333 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAM - UNFI-JB-334 </t>
   </si>
 </sst>
 </file>
@@ -649,7 +658,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>14</v>

--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView windowHeight="10425" windowWidth="19425" xWindow="-105" yWindow="-105"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
-    <sheet name="SimplifyVMS" r:id="rId1" sheetId="1"/>
+    <sheet name="SimplifyVMS" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>UserName</t>
   </si>
@@ -87,58 +87,31 @@
     <t>033</t>
   </si>
   <si>
-    <t xml:space="preserve">PROGRAM - UNFI-JB-239 </t>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>9898989898</t>
+  </si>
+  <si>
+    <t>PROGRAM - UNFI-JB-336</t>
+  </si>
+  <si>
+    <t>CH1711678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAM - UNFI-JB-339 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAM - UNFI-JB-340 </t>
   </si>
   <si>
     <t>CH0811033</t>
   </si>
   <si>
-    <t>Phone Number</t>
-  </si>
-  <si>
-    <t>9898989898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROGRAM - UNFI-JB-241 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROGRAM - UNFI-JB-250 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROGRAM - UNFI-JB-255 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROGRAM - UNFI-JB-324 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROGRAM - UNFI-JB-325 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROGRAM - UNFI-JB-326 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROGRAM - UNFI-JB-327 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROGRAM - UNFI-JB-328 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROGRAM - UNFI-JB-329 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROGRAM - UNFI-JB-330 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROGRAM - UNFI-JB-331 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROGRAM - UNFI-JB-332 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROGRAM - UNFI-JB-333 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROGRAM - UNFI-JB-334 </t>
+    <t xml:space="preserve">PROGRAM - UNFI-JB-341 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAM - UNFI-JB-342 </t>
   </si>
 </sst>
 </file>
@@ -258,57 +231,57 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="8" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -325,10 +298,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -363,7 +336,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -398,7 +371,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -492,21 +465,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -523,7 +496,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -575,18 +548,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -640,10 +613,10 @@
         <v>18</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="15.75" r="2" s="18" spans="1:12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="18" customFormat="1" ht="15.75">
       <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
@@ -658,7 +631,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>14</v>
@@ -670,16 +643,16 @@
         <v>17</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K2" s="22" t="s">
         <v>20</v>
       </c>
       <c r="L2" s="25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="19.5" r="3" spans="1:12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="19.5" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
@@ -883,15 +856,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="mailto:reshma+mspuat@simplifyvms.com" r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="A3"/>
-    <hyperlink display="mailto:reshma+hm@simplifyvms.com" r:id="rId3" ref="A4"/>
-    <hyperlink display="mailto:reshma+sup@simplifyvms.com" r:id="rId4" ref="A5"/>
-    <hyperlink display="https://webmail.automatrix-innovation.com/cpsess3304754576/3rdparty/roundcube/?_task=mail&amp;_caps=pdf%3D1%2Cflash%3D0%2Ctiff%3D0%2Cwebp%3D1&amp;_uid=3&amp;_mbox=INBOX&amp;_framed=1&amp;_action=preview - NOP" location="NOP" r:id="rId5" ref="B2" tooltip="mailto:demo@1234"/>
-    <hyperlink display="https://webmail.automatrix-innovation.com/cpsess3304754576/3rdparty/roundcube/?_task=mail&amp;_caps=pdf%3D1%2Cflash%3D0%2Ctiff%3D0%2Cwebp%3D1&amp;_uid=3&amp;_mbox=INBOX&amp;_framed=1&amp;_action=preview - NOP" location="NOP" r:id="rId6" ref="B3:B5" tooltip="mailto:demo@1234"/>
-    <hyperlink r:id="rId7" ref="I2"/>
+    <hyperlink ref="A2" r:id="rId1" display="mailto:reshma+mspuat@simplifyvms.com"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3" display="mailto:reshma+hm@simplifyvms.com"/>
+    <hyperlink ref="A5" r:id="rId4" display="mailto:reshma+sup@simplifyvms.com"/>
+    <hyperlink ref="B2" r:id="rId5" location="NOP" tooltip="mailto:demo@1234" display="https://webmail.automatrix-innovation.com/cpsess3304754576/3rdparty/roundcube/?_task=mail&amp;_caps=pdf%3D1%2Cflash%3D0%2Ctiff%3D0%2Cwebp%3D1&amp;_uid=3&amp;_mbox=INBOX&amp;_framed=1&amp;_action=preview - NOP"/>
+    <hyperlink ref="B3:B5" r:id="rId6" location="NOP" tooltip="mailto:demo@1234" display="https://webmail.automatrix-innovation.com/cpsess3304754576/3rdparty/roundcube/?_task=mail&amp;_caps=pdf%3D1%2Cflash%3D0%2Ctiff%3D0%2Cwebp%3D1&amp;_uid=3&amp;_mbox=INBOX&amp;_framed=1&amp;_action=preview - NOP"/>
+    <hyperlink ref="I2" r:id="rId7"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>UserName</t>
   </si>
@@ -112,6 +112,18 @@
   </si>
   <si>
     <t xml:space="preserve">PROGRAM - UNFI-JB-342 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAM - UNFI-JB-343 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAM - UNFI-JB-344 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAM - UNFI-JB-345 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAM - UNFI-JB-346 </t>
   </si>
 </sst>
 </file>
@@ -631,7 +643,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>14</v>
